--- a/data/usuarios.xlsx
+++ b/data/usuarios.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>user</t>
   </si>
   <si>
+    <t>f100250</t>
+  </si>
+  <si>
     <t>f100487</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>f102871</t>
   </si>
   <si>
+    <t>f103343</t>
+  </si>
+  <si>
     <t>f103552</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>f3188855</t>
   </si>
   <si>
+    <t>f38595</t>
+  </si>
+  <si>
     <t>f4181273</t>
   </si>
   <si>
@@ -151,6 +160,9 @@
     <t>f4424712</t>
   </si>
   <si>
+    <t>f4425027</t>
+  </si>
+  <si>
     <t>f4430079</t>
   </si>
   <si>
@@ -502,12 +514,18 @@
     <t>f72682</t>
   </si>
   <si>
+    <t>f74895</t>
+  </si>
+  <si>
     <t>f75453</t>
   </si>
   <si>
     <t>f75731</t>
   </si>
   <si>
+    <t>f75732</t>
+  </si>
+  <si>
     <t>f75743</t>
   </si>
   <si>
@@ -520,6 +538,9 @@
     <t>f79254</t>
   </si>
   <si>
+    <t>f79460</t>
+  </si>
+  <si>
     <t>f79743</t>
   </si>
   <si>
@@ -550,9 +571,15 @@
     <t>f84761</t>
   </si>
   <si>
+    <t>f84833</t>
+  </si>
+  <si>
     <t>f85058</t>
   </si>
   <si>
+    <t>f85126</t>
+  </si>
+  <si>
     <t>f86465</t>
   </si>
   <si>
@@ -575,6 +602,9 @@
   </si>
   <si>
     <t>f90643</t>
+  </si>
+  <si>
+    <t>f92275</t>
   </si>
   <si>
     <t>f93358</t>
@@ -974,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:T209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1046,37 +1076,19 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
+      <c r="M2">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="I3">
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="J3">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>12</v>
-      </c>
-      <c r="R3">
-        <v>21</v>
-      </c>
-      <c r="S3">
-        <v>9</v>
+      <c r="F3">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1084,19 +1096,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
       <c r="Q4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1104,41 +1122,83 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>9</v>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>22</v>
       </c>
       <c r="S6">
-        <v>13</v>
-      </c>
-      <c r="T6">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
       <c r="S7">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1146,45 +1206,21 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>18</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>13</v>
-      </c>
-      <c r="Q8">
-        <v>17</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
+      <c r="S9">
+        <v>13</v>
+      </c>
+      <c r="T9">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1192,42 +1228,48 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <v>17</v>
+      </c>
+      <c r="R10">
         <v>6</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <v>12</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
       <c r="N11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O11">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1235,33 +1277,54 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S12">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S13">
-        <v>1</v>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>26</v>
+      </c>
+      <c r="O13">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,33 +1332,33 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
       </c>
       <c r="R14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S14">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
       <c r="S15">
-        <v>17</v>
-      </c>
-      <c r="T15">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1303,111 +1366,153 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
         <v>6</v>
-      </c>
-      <c r="K16">
-        <v>16</v>
-      </c>
-      <c r="N16">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>47</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>12</v>
-      </c>
-      <c r="S16">
-        <v>20</v>
-      </c>
-      <c r="T16">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N17">
-        <v>9</v>
-      </c>
-      <c r="O17">
-        <v>15</v>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <v>17</v>
+      </c>
+      <c r="T17">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
       <c r="C18">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <v>48</v>
+      </c>
+      <c r="I18">
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <v>54</v>
+      </c>
+      <c r="K18">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>27</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>12</v>
+      </c>
+      <c r="S18">
+        <v>20</v>
+      </c>
+      <c r="T18">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>26</v>
-      </c>
-      <c r="P19">
-        <v>17</v>
-      </c>
-      <c r="Q19">
-        <v>32</v>
-      </c>
-      <c r="R19">
-        <v>8</v>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>23</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G20">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>15</v>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
       </c>
       <c r="O20">
-        <v>18</v>
-      </c>
-      <c r="P20">
-        <v>23</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1415,30 +1520,42 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R21">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>18</v>
+      </c>
       <c r="P22">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1446,158 +1563,146 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
       </c>
       <c r="P23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>14</v>
-      </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
-      <c r="T24">
-        <v>5</v>
+      <c r="P24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="P25">
+        <v>16</v>
+      </c>
+      <c r="Q25">
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="H26">
-        <v>14</v>
-      </c>
-      <c r="I26">
-        <v>11</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="P26">
-        <v>12</v>
-      </c>
-      <c r="Q26">
-        <v>12</v>
-      </c>
-      <c r="R26">
-        <v>7</v>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>17</v>
+      </c>
+      <c r="N26">
+        <v>16</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H27">
-        <v>14</v>
-      </c>
-      <c r="I27">
-        <v>21</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="P27">
-        <v>15</v>
-      </c>
-      <c r="Q27">
-        <v>25</v>
-      </c>
-      <c r="R27">
-        <v>2</v>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S28">
-        <v>9</v>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>12</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>12</v>
-      </c>
       <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
-      <c r="O29">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>15</v>
+      </c>
+      <c r="Q29">
         <v>25</v>
       </c>
-      <c r="P29">
-        <v>5</v>
+      <c r="R29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>12</v>
-      </c>
-      <c r="K30">
-        <v>14</v>
-      </c>
-      <c r="R30">
-        <v>16</v>
-      </c>
       <c r="S30">
-        <v>24</v>
-      </c>
-      <c r="T30">
         <v>9</v>
       </c>
     </row>
@@ -1605,71 +1710,89 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31">
-        <v>13</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>32</v>
-      </c>
-      <c r="K31">
-        <v>13</v>
-      </c>
-      <c r="L31">
-        <v>26</v>
-      </c>
-      <c r="S31">
-        <v>18</v>
-      </c>
-      <c r="T31">
-        <v>8</v>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>18</v>
+      </c>
+      <c r="O31">
+        <v>25</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
       <c r="C32">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>13</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+      <c r="R32">
+        <v>16</v>
       </c>
       <c r="S32">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T32">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>34</v>
+      </c>
       <c r="K33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>12</v>
       </c>
       <c r="S33">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="T33">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <v>23</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <v>14</v>
+      <c r="M34">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1677,52 +1800,61 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>18</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>13</v>
       </c>
       <c r="S35">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T35">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F36">
-        <v>7</v>
-      </c>
-      <c r="G36">
-        <v>19</v>
-      </c>
-      <c r="H36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>8</v>
-      </c>
-      <c r="O36">
-        <v>26</v>
-      </c>
-      <c r="P36">
-        <v>15</v>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>23</v>
+      </c>
       <c r="F37">
-        <v>9</v>
-      </c>
-      <c r="G37">
-        <v>19</v>
-      </c>
-      <c r="N37">
-        <v>7</v>
-      </c>
-      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>15</v>
+      </c>
+      <c r="M37">
         <v>21</v>
       </c>
     </row>
@@ -1730,336 +1862,414 @@
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <v>9</v>
-      </c>
-      <c r="I38">
-        <v>23</v>
-      </c>
-      <c r="P38">
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>16</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="S38">
+        <v>17</v>
+      </c>
+      <c r="T38">
         <v>11</v>
-      </c>
-      <c r="Q38">
-        <v>31</v>
-      </c>
-      <c r="R38">
-        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>21</v>
-      </c>
       <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="T39">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="N39">
+        <v>12</v>
+      </c>
+      <c r="O39">
+        <v>26</v>
+      </c>
+      <c r="P39">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D40">
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
+      </c>
+      <c r="O40">
         <v>21</v>
-      </c>
-      <c r="E40">
-        <v>23</v>
-      </c>
-      <c r="L40">
-        <v>12</v>
-      </c>
-      <c r="M40">
-        <v>7</v>
-      </c>
-      <c r="T40">
-        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>7</v>
-      </c>
-      <c r="F41">
-        <v>9</v>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>24</v>
+      </c>
+      <c r="P41">
+        <v>11</v>
+      </c>
+      <c r="Q41">
+        <v>31</v>
+      </c>
+      <c r="R41">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H42">
-        <v>12</v>
-      </c>
-      <c r="I42">
-        <v>16</v>
-      </c>
-      <c r="J42">
-        <v>6</v>
-      </c>
-      <c r="P42">
-        <v>15</v>
-      </c>
-      <c r="Q42">
-        <v>15</v>
-      </c>
-      <c r="R42">
-        <v>6</v>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>23</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>7</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C43">
-        <v>11</v>
-      </c>
-      <c r="S43">
-        <v>18</v>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>23</v>
+      </c>
+      <c r="L43">
+        <v>12</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
       </c>
       <c r="T43">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>29</v>
-      </c>
-      <c r="J44">
-        <v>21</v>
-      </c>
-      <c r="K44">
-        <v>8</v>
-      </c>
-      <c r="R44">
-        <v>9</v>
-      </c>
-      <c r="S44">
-        <v>18</v>
-      </c>
-      <c r="T44">
-        <v>8</v>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="M44">
+        <v>14</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G45">
-        <v>13</v>
-      </c>
       <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <v>16</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="P45">
         <v>15</v>
       </c>
-      <c r="I45">
-        <v>7</v>
-      </c>
-      <c r="O45">
-        <v>13</v>
-      </c>
-      <c r="P45">
-        <v>26</v>
-      </c>
       <c r="Q45">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O46">
-        <v>17</v>
-      </c>
-      <c r="P46">
-        <v>25</v>
-      </c>
-      <c r="Q46">
-        <v>9</v>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>14</v>
+      </c>
+      <c r="L46">
+        <v>28</v>
+      </c>
+      <c r="M46">
+        <v>12</v>
+      </c>
+      <c r="S46">
+        <v>18</v>
+      </c>
+      <c r="T46">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N47">
-        <v>9</v>
-      </c>
-      <c r="O47">
-        <v>9</v>
-      </c>
-      <c r="Q47">
-        <v>13</v>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>29</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>12</v>
       </c>
       <c r="R47">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="S47">
+        <v>18</v>
+      </c>
+      <c r="T47">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
       <c r="H48">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="O48">
+        <v>13</v>
       </c>
       <c r="P48">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C49">
-        <v>8</v>
-      </c>
-      <c r="S49">
-        <v>13</v>
-      </c>
-      <c r="T49">
-        <v>11</v>
+      <c r="J49">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D50">
-        <v>20</v>
-      </c>
-      <c r="E50">
-        <v>19</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>13</v>
-      </c>
-      <c r="T50">
-        <v>7</v>
+      <c r="G50">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>25</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <v>18</v>
+      </c>
+      <c r="P50">
+        <v>25</v>
+      </c>
+      <c r="Q50">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="E51">
+        <v>16</v>
+      </c>
+      <c r="M51">
+        <v>18</v>
+      </c>
+      <c r="N51">
         <v>25</v>
       </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="I51">
-        <v>13</v>
-      </c>
-      <c r="J51">
-        <v>26</v>
-      </c>
-      <c r="K51">
-        <v>10</v>
+      <c r="O51">
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="R51">
-        <v>27</v>
-      </c>
-      <c r="S51">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>12</v>
-      </c>
       <c r="H52">
-        <v>6</v>
-      </c>
-      <c r="N52">
-        <v>11</v>
-      </c>
-      <c r="O52">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="P52">
         <v>8</v>
+      </c>
+      <c r="Q52">
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N53">
-        <v>8</v>
-      </c>
-      <c r="O53">
-        <v>13</v>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>11</v>
+      </c>
+      <c r="K53">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>17</v>
+      </c>
+      <c r="M53">
+        <v>8</v>
+      </c>
+      <c r="S53">
+        <v>13</v>
+      </c>
+      <c r="T53">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C54">
-        <v>9</v>
-      </c>
-      <c r="O54">
-        <v>13</v>
-      </c>
-      <c r="P54">
-        <v>23</v>
-      </c>
-      <c r="Q54">
-        <v>13</v>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>19</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>13</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>8</v>
+      </c>
+      <c r="T54">
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D55">
-        <v>11</v>
-      </c>
-      <c r="E55">
-        <v>17</v>
-      </c>
-      <c r="F55">
-        <v>7</v>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>13</v>
+      </c>
+      <c r="J55">
+        <v>26</v>
+      </c>
+      <c r="K55">
+        <v>13</v>
+      </c>
+      <c r="Q55">
+        <v>18</v>
+      </c>
+      <c r="R55">
+        <v>27</v>
+      </c>
+      <c r="S55">
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2067,58 +2277,76 @@
         <v>55</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56">
         <v>12</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O56">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P56">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>24</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
       <c r="N57">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="O57">
-        <v>11</v>
-      </c>
-      <c r="S57">
-        <v>13</v>
-      </c>
-      <c r="T57">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>25</v>
-      </c>
       <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="I58">
-        <v>10</v>
-      </c>
-      <c r="J58">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+      <c r="K58">
+        <v>21</v>
+      </c>
+      <c r="L58">
+        <v>23</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>13</v>
+      </c>
+      <c r="P58">
         <v>24</v>
       </c>
-      <c r="K58">
+      <c r="Q58">
         <v>13</v>
       </c>
     </row>
@@ -2126,58 +2354,91 @@
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G59">
-        <v>6</v>
-      </c>
-      <c r="Q59">
-        <v>17</v>
-      </c>
-      <c r="R59">
-        <v>27</v>
-      </c>
-      <c r="S59">
-        <v>6</v>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>19</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
       <c r="N60">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O60">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="P60">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E61">
+        <v>13</v>
+      </c>
+      <c r="F61">
+        <v>22</v>
+      </c>
       <c r="G61">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>24</v>
       </c>
       <c r="O61">
-        <v>17</v>
-      </c>
-      <c r="P61">
-        <v>27</v>
-      </c>
-      <c r="Q61">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>13</v>
+      </c>
+      <c r="T61">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N62">
-        <v>8</v>
-      </c>
-      <c r="O62">
-        <v>8</v>
-      </c>
-      <c r="Q62">
+      <c r="B62">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>11</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62">
         <v>13</v>
       </c>
     </row>
@@ -2185,89 +2446,92 @@
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>26</v>
-      </c>
-      <c r="C63">
-        <v>9</v>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63">
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>13</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R63">
         <v>27</v>
       </c>
       <c r="S63">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>15</v>
-      </c>
-      <c r="C64">
-        <v>7</v>
-      </c>
-      <c r="J64">
-        <v>12</v>
-      </c>
-      <c r="K64">
-        <v>17</v>
-      </c>
-      <c r="R64">
+      <c r="E64">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>8</v>
+      </c>
+      <c r="M64">
         <v>14</v>
       </c>
-      <c r="S64">
-        <v>13</v>
+      <c r="N64">
+        <v>23</v>
+      </c>
+      <c r="O64">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>7</v>
+      <c r="G65">
+        <v>16</v>
       </c>
       <c r="H65">
-        <v>12</v>
-      </c>
-      <c r="I65">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="O65">
+        <v>17</v>
       </c>
       <c r="P65">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Q65">
-        <v>17</v>
-      </c>
-      <c r="R65">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>9</v>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>26</v>
       </c>
       <c r="F66">
-        <v>18</v>
-      </c>
-      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="M66">
         <v>16</v>
       </c>
-      <c r="H66">
-        <v>6</v>
-      </c>
       <c r="N66">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="O66">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="Q66">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2275,31 +2539,28 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C67">
-        <v>20</v>
-      </c>
-      <c r="D67">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
       </c>
       <c r="J67">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K67">
-        <v>6</v>
-      </c>
-      <c r="L67">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="Q67">
+        <v>21</v>
       </c>
       <c r="R67">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="S67">
-        <v>18</v>
-      </c>
-      <c r="T67">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -2307,32 +2568,44 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>20</v>
-      </c>
-      <c r="O68">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <v>17</v>
+      </c>
+      <c r="R68">
         <v>14</v>
       </c>
-      <c r="P68">
-        <v>25</v>
-      </c>
-      <c r="Q68">
-        <v>11</v>
+      <c r="S68">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C69">
-        <v>13</v>
-      </c>
-      <c r="D69">
-        <v>14</v>
-      </c>
-      <c r="L69">
-        <v>18</v>
-      </c>
-      <c r="M69">
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>13</v>
+      </c>
+      <c r="I69">
+        <v>23</v>
+      </c>
+      <c r="P69">
+        <v>19</v>
+      </c>
+      <c r="Q69">
+        <v>17</v>
+      </c>
+      <c r="R69">
         <v>5</v>
       </c>
     </row>
@@ -2340,30 +2613,54 @@
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
       <c r="N70">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O70">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I71">
-        <v>13</v>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
       </c>
       <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71">
         <v>6</v>
       </c>
-      <c r="P71">
-        <v>11</v>
-      </c>
-      <c r="Q71">
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="R71">
         <v>16</v>
       </c>
-      <c r="R71">
+      <c r="S71">
+        <v>18</v>
+      </c>
+      <c r="T71">
         <v>7</v>
       </c>
     </row>
@@ -2371,71 +2668,80 @@
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G72">
-        <v>9</v>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>17</v>
+      </c>
+      <c r="J72">
+        <v>17</v>
       </c>
       <c r="O72">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P72">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q72">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>24</v>
-      </c>
       <c r="C73">
-        <v>12</v>
-      </c>
-      <c r="Q73">
-        <v>12</v>
-      </c>
-      <c r="R73">
+        <v>13</v>
+      </c>
+      <c r="D73">
         <v>14</v>
       </c>
-      <c r="S73">
-        <v>11</v>
+      <c r="L73">
+        <v>18</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>22</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="M74">
+        <v>8</v>
+      </c>
       <c r="N74">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O74">
-        <v>18</v>
-      </c>
-      <c r="P74">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="H75">
+      <c r="I75">
         <v>13</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P75">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q75">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R75">
         <v>7</v>
@@ -2445,66 +2751,66 @@
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>13</v>
-      </c>
-      <c r="C76">
-        <v>11</v>
+      <c r="G76">
+        <v>18</v>
+      </c>
+      <c r="H76">
+        <v>26</v>
       </c>
       <c r="I76">
-        <v>16</v>
-      </c>
-      <c r="J76">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="O76">
+        <v>18</v>
+      </c>
+      <c r="P76">
+        <v>27</v>
       </c>
       <c r="Q76">
-        <v>13</v>
-      </c>
-      <c r="S76">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F77">
-        <v>13</v>
-      </c>
-      <c r="G77">
-        <v>8</v>
-      </c>
-      <c r="H77">
-        <v>5</v>
-      </c>
-      <c r="O77">
-        <v>10</v>
-      </c>
-      <c r="P77">
-        <v>5</v>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="I77">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>24</v>
+      </c>
+      <c r="K77">
+        <v>8</v>
+      </c>
+      <c r="Q77">
+        <v>12</v>
+      </c>
+      <c r="R77">
+        <v>14</v>
+      </c>
+      <c r="S77">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H78">
-        <v>12</v>
-      </c>
-      <c r="I78">
-        <v>23</v>
-      </c>
-      <c r="J78">
-        <v>5</v>
+      <c r="N78">
+        <v>12</v>
+      </c>
+      <c r="O78">
+        <v>18</v>
       </c>
       <c r="P78">
-        <v>13</v>
-      </c>
-      <c r="Q78">
-        <v>17</v>
-      </c>
-      <c r="R78">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -2512,19 +2818,22 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>26</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>14</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
       </c>
       <c r="Q79">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R79">
-        <v>21</v>
-      </c>
-      <c r="S79">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -2532,96 +2841,93 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J80">
-        <v>25</v>
-      </c>
-      <c r="K80">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q80">
         <v>13</v>
       </c>
-      <c r="R80">
-        <v>27</v>
-      </c>
       <c r="S80">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>24</v>
-      </c>
-      <c r="C81">
-        <v>11</v>
-      </c>
-      <c r="I81">
+      <c r="F81">
+        <v>15</v>
+      </c>
+      <c r="G81">
+        <v>9</v>
+      </c>
+      <c r="H81">
         <v>6</v>
       </c>
-      <c r="J81">
-        <v>7</v>
-      </c>
-      <c r="Q81">
-        <v>18</v>
-      </c>
-      <c r="R81">
-        <v>25</v>
-      </c>
-      <c r="S81">
-        <v>8</v>
+      <c r="O81">
+        <v>10</v>
+      </c>
+      <c r="P81">
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>17</v>
-      </c>
-      <c r="C82">
-        <v>12</v>
+      <c r="H82">
+        <v>12</v>
+      </c>
+      <c r="I82">
+        <v>23</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="P82">
+        <v>13</v>
       </c>
       <c r="Q82">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R82">
-        <v>26</v>
-      </c>
-      <c r="S82">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G83">
-        <v>8</v>
-      </c>
-      <c r="H83">
-        <v>16</v>
+      <c r="B83">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>11</v>
-      </c>
-      <c r="O83">
-        <v>18</v>
-      </c>
-      <c r="P83">
+        <v>17</v>
+      </c>
+      <c r="J83">
+        <v>12</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="Q83">
+        <v>14</v>
+      </c>
+      <c r="R83">
         <v>21</v>
       </c>
-      <c r="Q83">
+      <c r="S83">
         <v>8</v>
       </c>
     </row>
@@ -2629,28 +2935,28 @@
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B84">
+        <v>26</v>
+      </c>
       <c r="C84">
-        <v>17</v>
-      </c>
-      <c r="D84">
-        <v>25</v>
-      </c>
-      <c r="E84">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="I84">
+        <v>18</v>
+      </c>
+      <c r="J84">
+        <v>26</v>
       </c>
       <c r="K84">
-        <v>17</v>
-      </c>
-      <c r="L84">
-        <v>14</v>
-      </c>
-      <c r="M84">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="Q84">
+        <v>13</v>
+      </c>
+      <c r="R84">
+        <v>27</v>
       </c>
       <c r="S84">
-        <v>12</v>
-      </c>
-      <c r="T84">
         <v>13</v>
       </c>
     </row>
@@ -2658,134 +2964,185 @@
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G85">
-        <v>9</v>
+      <c r="B85">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <v>13</v>
+      </c>
+      <c r="K85">
+        <v>7</v>
+      </c>
+      <c r="Q85">
+        <v>18</v>
+      </c>
+      <c r="R85">
+        <v>26</v>
       </c>
       <c r="S85">
-        <v>15</v>
-      </c>
-      <c r="T85">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B86">
+        <v>27</v>
+      </c>
       <c r="C86">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <v>20</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+      <c r="Q86">
+        <v>14</v>
+      </c>
+      <c r="R86">
+        <v>26</v>
       </c>
       <c r="S86">
-        <v>15</v>
-      </c>
-      <c r="T86">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>13</v>
-      </c>
-      <c r="C87">
+      <c r="G87">
+        <v>8</v>
+      </c>
+      <c r="H87">
+        <v>17</v>
+      </c>
+      <c r="I87">
+        <v>12</v>
+      </c>
+      <c r="O87">
+        <v>18</v>
+      </c>
+      <c r="P87">
         <v>22</v>
       </c>
-      <c r="D87">
-        <v>9</v>
-      </c>
-      <c r="J87">
-        <v>14</v>
-      </c>
-      <c r="K87">
-        <v>16</v>
-      </c>
-      <c r="L87">
-        <v>8</v>
-      </c>
-      <c r="R87">
-        <v>11</v>
-      </c>
-      <c r="S87">
-        <v>22</v>
-      </c>
-      <c r="T87">
-        <v>1</v>
+      <c r="Q87">
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F88">
-        <v>11</v>
-      </c>
-      <c r="G88">
-        <v>9</v>
-      </c>
-      <c r="H88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>9</v>
-      </c>
-      <c r="P88">
-        <v>7</v>
+      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>26</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+      <c r="K88">
+        <v>17</v>
+      </c>
+      <c r="L88">
+        <v>14</v>
+      </c>
+      <c r="M88">
+        <v>9</v>
+      </c>
+      <c r="S88">
+        <v>12</v>
+      </c>
+      <c r="T88">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>23</v>
-      </c>
-      <c r="C89">
-        <v>9</v>
-      </c>
-      <c r="Q89">
-        <v>16</v>
-      </c>
-      <c r="R89">
-        <v>25</v>
+      <c r="G89">
+        <v>18</v>
+      </c>
+      <c r="H89">
+        <v>28</v>
+      </c>
+      <c r="I89">
+        <v>9</v>
       </c>
       <c r="S89">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="T89">
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O90">
-        <v>14</v>
-      </c>
-      <c r="P90">
+      <c r="C90">
+        <v>17</v>
+      </c>
+      <c r="D90">
         <v>25</v>
       </c>
-      <c r="Q90">
-        <v>12</v>
+      <c r="K90">
+        <v>9</v>
+      </c>
+      <c r="L90">
+        <v>17</v>
+      </c>
+      <c r="M90">
+        <v>8</v>
+      </c>
+      <c r="S90">
+        <v>15</v>
+      </c>
+      <c r="T90">
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F91">
-        <v>10</v>
-      </c>
-      <c r="G91">
-        <v>9</v>
-      </c>
-      <c r="N91">
+      <c r="B91">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="J91">
+        <v>14</v>
+      </c>
+      <c r="K91">
+        <v>16</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
+      <c r="R91">
         <v>11</v>
       </c>
-      <c r="O91">
-        <v>12</v>
-      </c>
-      <c r="P91">
-        <v>8</v>
+      <c r="S91">
+        <v>22</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -2793,16 +3150,19 @@
         <v>91</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G92">
+        <v>11</v>
+      </c>
+      <c r="H92">
         <v>4</v>
       </c>
       <c r="N92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O92">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="P92">
         <v>7</v>
@@ -2813,105 +3173,81 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C93">
-        <v>26</v>
-      </c>
-      <c r="D93">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I93">
+        <v>14</v>
       </c>
       <c r="J93">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K93">
+        <v>7</v>
+      </c>
+      <c r="Q93">
         <v>16</v>
       </c>
-      <c r="P93">
-        <v>19</v>
-      </c>
-      <c r="Q93">
-        <v>26</v>
-      </c>
       <c r="R93">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="S93">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>6</v>
-      </c>
-      <c r="H94">
-        <v>12</v>
-      </c>
-      <c r="I94">
-        <v>4</v>
-      </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="O94">
+        <v>14</v>
       </c>
       <c r="P94">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q94">
-        <v>25</v>
-      </c>
-      <c r="R94">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>18</v>
-      </c>
-      <c r="C95">
-        <v>13</v>
+      <c r="F95">
+        <v>10</v>
       </c>
       <c r="G95">
         <v>9</v>
       </c>
-      <c r="H95">
-        <v>17</v>
-      </c>
-      <c r="Q95">
-        <v>13</v>
-      </c>
-      <c r="R95">
-        <v>25</v>
-      </c>
-      <c r="S95">
-        <v>13</v>
+      <c r="N95">
+        <v>18</v>
+      </c>
+      <c r="O95">
+        <v>12</v>
+      </c>
+      <c r="P95">
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E96">
-        <v>13</v>
-      </c>
       <c r="F96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O96">
-        <v>9</v>
-      </c>
-      <c r="S96">
-        <v>18</v>
-      </c>
-      <c r="T96">
+        <v>26</v>
+      </c>
+      <c r="P96">
         <v>7</v>
       </c>
     </row>
@@ -2920,15 +3256,27 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>21</v>
-      </c>
-      <c r="I97">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C97">
+        <v>28</v>
+      </c>
+      <c r="D97">
+        <v>8</v>
       </c>
       <c r="J97">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K97">
+        <v>17</v>
+      </c>
+      <c r="P97">
+        <v>19</v>
+      </c>
+      <c r="Q97">
+        <v>26</v>
+      </c>
+      <c r="R97">
         <v>13</v>
       </c>
     </row>
@@ -2936,33 +3284,51 @@
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D98">
-        <v>8</v>
-      </c>
-      <c r="E98">
-        <v>15</v>
-      </c>
-      <c r="F98">
+      <c r="B98">
         <v>6</v>
       </c>
-      <c r="T98">
-        <v>6</v>
+      <c r="H98">
+        <v>12</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>16</v>
+      </c>
+      <c r="Q98">
+        <v>25</v>
+      </c>
+      <c r="R98">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K99">
-        <v>13</v>
-      </c>
-      <c r="L99">
-        <v>24</v>
-      </c>
-      <c r="M99">
-        <v>3</v>
-      </c>
-      <c r="T99">
+      <c r="B99">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>9</v>
+      </c>
+      <c r="H99">
+        <v>18</v>
+      </c>
+      <c r="Q99">
+        <v>13</v>
+      </c>
+      <c r="R99">
+        <v>25</v>
+      </c>
+      <c r="S99">
         <v>13</v>
       </c>
     </row>
@@ -2970,22 +3336,28 @@
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E100">
+        <v>13</v>
+      </c>
+      <c r="F100">
+        <v>16</v>
+      </c>
       <c r="G100">
         <v>9</v>
       </c>
-      <c r="H100">
-        <v>18</v>
-      </c>
-      <c r="I100">
-        <v>13</v>
+      <c r="M100">
+        <v>13</v>
+      </c>
+      <c r="N100">
+        <v>15</v>
       </c>
       <c r="O100">
-        <v>18</v>
-      </c>
-      <c r="P100">
-        <v>24</v>
-      </c>
-      <c r="Q100">
+        <v>9</v>
+      </c>
+      <c r="S100">
+        <v>18</v>
+      </c>
+      <c r="T100">
         <v>8</v>
       </c>
     </row>
@@ -2994,108 +3366,78 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>19</v>
-      </c>
-      <c r="D101">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="I101">
+        <v>13</v>
       </c>
       <c r="J101">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K101">
-        <v>10</v>
-      </c>
-      <c r="R101">
-        <v>18</v>
-      </c>
-      <c r="S101">
-        <v>21</v>
-      </c>
-      <c r="T101">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
       <c r="E102">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="M102">
         <v>15</v>
       </c>
-      <c r="G102">
-        <v>9</v>
-      </c>
-      <c r="K102">
-        <v>11</v>
-      </c>
-      <c r="L102">
-        <v>13</v>
-      </c>
-      <c r="Q102">
-        <v>17</v>
-      </c>
-      <c r="R102">
-        <v>18</v>
-      </c>
-      <c r="S102">
-        <v>7</v>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E103">
-        <v>11</v>
-      </c>
-      <c r="F103">
-        <v>16</v>
-      </c>
-      <c r="G103">
-        <v>9</v>
-      </c>
-      <c r="N103">
-        <v>5</v>
-      </c>
-      <c r="O103">
-        <v>5</v>
+      <c r="K103">
+        <v>13</v>
+      </c>
+      <c r="L103">
+        <v>25</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B104">
-        <v>8</v>
-      </c>
-      <c r="C104">
-        <v>18</v>
-      </c>
-      <c r="D104">
-        <v>7</v>
-      </c>
-      <c r="J104">
-        <v>6</v>
-      </c>
-      <c r="K104">
-        <v>17</v>
-      </c>
-      <c r="L104">
-        <v>6</v>
-      </c>
-      <c r="R104">
-        <v>11</v>
-      </c>
-      <c r="S104">
-        <v>17</v>
-      </c>
-      <c r="T104">
+      <c r="G104">
+        <v>9</v>
+      </c>
+      <c r="H104">
+        <v>18</v>
+      </c>
+      <c r="I104">
+        <v>13</v>
+      </c>
+      <c r="O104">
+        <v>18</v>
+      </c>
+      <c r="P104">
+        <v>25</v>
+      </c>
+      <c r="Q104">
         <v>8</v>
       </c>
     </row>
@@ -3103,82 +3445,118 @@
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F105">
-        <v>12</v>
-      </c>
-      <c r="G105">
-        <v>16</v>
-      </c>
-      <c r="H105">
+      <c r="B105">
         <v>5</v>
       </c>
-      <c r="N105">
-        <v>6</v>
-      </c>
-      <c r="O105">
-        <v>9</v>
-      </c>
-      <c r="P105">
-        <v>4</v>
+      <c r="C105">
+        <v>19</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="J105">
+        <v>13</v>
+      </c>
+      <c r="K105">
+        <v>29</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="R105">
+        <v>18</v>
+      </c>
+      <c r="S105">
+        <v>21</v>
+      </c>
+      <c r="T105">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E106">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>17</v>
+      </c>
+      <c r="G106">
+        <v>9</v>
+      </c>
       <c r="K106">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="L106">
+        <v>13</v>
+      </c>
+      <c r="M106">
+        <v>13</v>
+      </c>
+      <c r="Q106">
+        <v>17</v>
       </c>
       <c r="R106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S106">
-        <v>25</v>
-      </c>
-      <c r="T106">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H107">
+      <c r="E107">
         <v>11</v>
       </c>
-      <c r="I107">
-        <v>22</v>
-      </c>
-      <c r="J107">
-        <v>8</v>
-      </c>
-      <c r="R107">
+      <c r="F107">
+        <v>16</v>
+      </c>
+      <c r="G107">
+        <v>9</v>
+      </c>
+      <c r="M107">
+        <v>17</v>
+      </c>
+      <c r="N107">
+        <v>17</v>
+      </c>
+      <c r="O107">
         <v>5</v>
-      </c>
-      <c r="S107">
-        <v>28</v>
-      </c>
-      <c r="T107">
-        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E108">
-        <v>16</v>
-      </c>
-      <c r="F108">
-        <v>17</v>
-      </c>
-      <c r="G108">
-        <v>3</v>
-      </c>
-      <c r="N108">
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>18</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="J108">
         <v>6</v>
       </c>
-      <c r="O108">
+      <c r="K108">
+        <v>18</v>
+      </c>
+      <c r="L108">
+        <v>8</v>
+      </c>
+      <c r="R108">
+        <v>11</v>
+      </c>
+      <c r="S108">
+        <v>17</v>
+      </c>
+      <c r="T108">
         <v>8</v>
       </c>
     </row>
@@ -3186,55 +3564,40 @@
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B109">
-        <v>25</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
+      <c r="F109">
+        <v>12</v>
       </c>
       <c r="G109">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H109">
-        <v>18</v>
-      </c>
-      <c r="I109">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="N109">
+        <v>6</v>
       </c>
       <c r="O109">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P109">
-        <v>14</v>
-      </c>
-      <c r="Q109">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B110">
-        <v>13</v>
-      </c>
-      <c r="C110">
-        <v>18</v>
-      </c>
-      <c r="D110">
-        <v>10</v>
-      </c>
-      <c r="J110">
-        <v>5</v>
-      </c>
       <c r="K110">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="L110">
+        <v>15</v>
       </c>
       <c r="R110">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S110">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="T110">
         <v>12</v>
@@ -3244,23 +3607,23 @@
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F111">
-        <v>10</v>
-      </c>
-      <c r="G111">
-        <v>8</v>
-      </c>
       <c r="H111">
-        <v>2</v>
-      </c>
-      <c r="N111">
         <v>11</v>
       </c>
-      <c r="O111">
-        <v>25</v>
-      </c>
-      <c r="P111">
-        <v>7</v>
+      <c r="I111">
+        <v>23</v>
+      </c>
+      <c r="J111">
+        <v>9</v>
+      </c>
+      <c r="R111">
+        <v>5</v>
+      </c>
+      <c r="S111">
+        <v>28</v>
+      </c>
+      <c r="T111">
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -3268,16 +3631,19 @@
         <v>111</v>
       </c>
       <c r="E112">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F112">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G112">
         <v>3</v>
       </c>
+      <c r="M112">
+        <v>13</v>
+      </c>
       <c r="N112">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="O112">
         <v>8</v>
@@ -3287,232 +3653,271 @@
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D113">
-        <v>9</v>
-      </c>
-      <c r="E113">
-        <v>8</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-      <c r="T113">
-        <v>2</v>
+      <c r="B113">
+        <v>26</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="G113">
+        <v>9</v>
+      </c>
+      <c r="H113">
+        <v>18</v>
+      </c>
+      <c r="I113">
+        <v>12</v>
+      </c>
+      <c r="O113">
+        <v>18</v>
+      </c>
+      <c r="P113">
+        <v>15</v>
+      </c>
+      <c r="Q113">
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G114">
-        <v>12</v>
-      </c>
-      <c r="H114">
+      <c r="B114">
+        <v>13</v>
+      </c>
+      <c r="C114">
         <v>19</v>
       </c>
-      <c r="I114">
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="J114">
         <v>6</v>
       </c>
-      <c r="O114">
-        <v>13</v>
-      </c>
-      <c r="P114">
-        <v>16</v>
-      </c>
-      <c r="Q114">
-        <v>13</v>
+      <c r="K114">
+        <v>13</v>
+      </c>
+      <c r="R114">
+        <v>12</v>
+      </c>
+      <c r="S114">
+        <v>19</v>
+      </c>
+      <c r="T114">
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C115">
+      <c r="F115">
         <v>11</v>
       </c>
-      <c r="D115">
-        <v>11</v>
-      </c>
-      <c r="K115">
-        <v>13</v>
-      </c>
-      <c r="L115">
-        <v>23</v>
-      </c>
-      <c r="S115">
-        <v>18</v>
-      </c>
-      <c r="T115">
-        <v>7</v>
+      <c r="G115">
+        <v>9</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>16</v>
+      </c>
+      <c r="O115">
+        <v>25</v>
+      </c>
+      <c r="P115">
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B116">
-        <v>13</v>
-      </c>
-      <c r="C116">
-        <v>22</v>
-      </c>
-      <c r="D116">
-        <v>9</v>
-      </c>
-      <c r="J116">
+      <c r="E116">
+        <v>17</v>
+      </c>
+      <c r="F116">
+        <v>17</v>
+      </c>
+      <c r="G116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>13</v>
+      </c>
+      <c r="N116">
         <v>11</v>
       </c>
-      <c r="K116">
-        <v>24</v>
-      </c>
-      <c r="L116">
-        <v>5</v>
+      <c r="O116">
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B117">
-        <v>12</v>
-      </c>
-      <c r="C117">
-        <v>22</v>
-      </c>
       <c r="D117">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>6</v>
+      </c>
+      <c r="N117">
+        <v>8</v>
+      </c>
+      <c r="T117">
         <v>2</v>
-      </c>
-      <c r="J117">
-        <v>11</v>
-      </c>
-      <c r="K117">
-        <v>16</v>
-      </c>
-      <c r="R117">
-        <v>11</v>
-      </c>
-      <c r="S117">
-        <v>22</v>
-      </c>
-      <c r="T117">
-        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="G118">
+        <v>13</v>
+      </c>
+      <c r="H118">
+        <v>21</v>
+      </c>
       <c r="I118">
-        <v>13</v>
-      </c>
-      <c r="J118">
-        <v>13</v>
-      </c>
-      <c r="K118">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="O118">
+        <v>13</v>
+      </c>
+      <c r="P118">
+        <v>16</v>
       </c>
       <c r="Q118">
         <v>13</v>
-      </c>
-      <c r="R118">
-        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B119">
-        <v>13</v>
-      </c>
       <c r="C119">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D119">
-        <v>9</v>
-      </c>
-      <c r="R119">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="K119">
+        <v>13</v>
+      </c>
+      <c r="L119">
+        <v>24</v>
+      </c>
+      <c r="M119">
+        <v>12</v>
       </c>
       <c r="S119">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T119">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="B120">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
       <c r="D120">
-        <v>13</v>
-      </c>
-      <c r="E120">
-        <v>20</v>
-      </c>
-      <c r="F120">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J120">
+        <v>11</v>
+      </c>
+      <c r="K120">
+        <v>24</v>
+      </c>
+      <c r="L120">
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:20">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E121">
-        <v>12</v>
-      </c>
-      <c r="F121">
-        <v>18</v>
-      </c>
-      <c r="G121">
-        <v>8</v>
-      </c>
-      <c r="N121">
-        <v>5</v>
-      </c>
-      <c r="O121">
-        <v>4</v>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="J121">
+        <v>11</v>
+      </c>
+      <c r="K121">
+        <v>16</v>
+      </c>
+      <c r="R121">
+        <v>11</v>
+      </c>
+      <c r="S121">
+        <v>22</v>
+      </c>
+      <c r="T121">
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:20">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B122">
-        <v>7</v>
-      </c>
-      <c r="H122">
-        <v>10</v>
-      </c>
       <c r="I122">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J122">
-        <v>4</v>
-      </c>
-      <c r="P122">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="K122">
+        <v>13</v>
       </c>
       <c r="Q122">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="R122">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:20">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>22</v>
+      </c>
       <c r="D123">
-        <v>4</v>
-      </c>
-      <c r="E123">
-        <v>17</v>
-      </c>
-      <c r="F123">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="R123">
+        <v>8</v>
+      </c>
+      <c r="S123">
+        <v>16</v>
+      </c>
+      <c r="T123">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -3520,19 +3925,19 @@
         <v>123</v>
       </c>
       <c r="D124">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="L124">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="N124">
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -3540,38 +3945,47 @@
         <v>124</v>
       </c>
       <c r="E125">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F125">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="M125">
+        <v>17</v>
       </c>
       <c r="N125">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O125">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:20">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C126">
-        <v>12</v>
-      </c>
-      <c r="K126">
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="H126">
         <v>11</v>
       </c>
-      <c r="L126">
+      <c r="I126">
+        <v>10</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="P126">
+        <v>14</v>
+      </c>
+      <c r="Q126">
         <v>31</v>
       </c>
-      <c r="S126">
-        <v>12</v>
-      </c>
-      <c r="T126">
+      <c r="R126">
         <v>14</v>
       </c>
     </row>
@@ -3579,81 +3993,63 @@
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C127">
-        <v>6</v>
-      </c>
       <c r="D127">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E127">
-        <v>7</v>
-      </c>
-      <c r="K127">
-        <v>18</v>
-      </c>
-      <c r="L127">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>9</v>
       </c>
       <c r="M127">
-        <v>6</v>
-      </c>
-      <c r="S127">
-        <v>12</v>
-      </c>
-      <c r="T127">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="N127">
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:20">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G128">
-        <v>12</v>
-      </c>
-      <c r="H128">
+      <c r="D128">
         <v>16</v>
       </c>
-      <c r="I128">
-        <v>7</v>
-      </c>
-      <c r="O128">
-        <v>1</v>
-      </c>
-      <c r="P128">
-        <v>13</v>
-      </c>
-      <c r="Q128">
-        <v>13</v>
+      <c r="E128">
+        <v>22</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>16</v>
+      </c>
+      <c r="M128">
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:20">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B129">
-        <v>25</v>
-      </c>
-      <c r="C129">
-        <v>7</v>
-      </c>
-      <c r="I129">
-        <v>13</v>
-      </c>
-      <c r="J129">
-        <v>27</v>
-      </c>
-      <c r="K129">
-        <v>13</v>
-      </c>
-      <c r="Q129">
-        <v>10</v>
-      </c>
-      <c r="R129">
-        <v>26</v>
-      </c>
-      <c r="S129">
-        <v>8</v>
+      <c r="E129">
+        <v>17</v>
+      </c>
+      <c r="F129">
+        <v>18</v>
+      </c>
+      <c r="G129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>13</v>
+      </c>
+      <c r="N129">
+        <v>18</v>
+      </c>
+      <c r="O129">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -3661,51 +4057,48 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>19</v>
-      </c>
-      <c r="D130">
-        <v>24</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K130">
         <v>12</v>
       </c>
       <c r="L130">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="M130">
+        <v>13</v>
       </c>
       <c r="S130">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T130">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:20">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B131">
-        <v>12</v>
-      </c>
       <c r="C131">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D131">
-        <v>5</v>
-      </c>
-      <c r="J131">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
       </c>
       <c r="K131">
-        <v>12</v>
-      </c>
-      <c r="R131">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="L131">
+        <v>26</v>
+      </c>
+      <c r="M131">
+        <v>8</v>
       </c>
       <c r="S131">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="T131">
         <v>13</v>
@@ -3715,117 +4108,129 @@
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E132">
-        <v>13</v>
-      </c>
-      <c r="F132">
-        <v>16</v>
-      </c>
       <c r="G132">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H132">
+        <v>18</v>
+      </c>
+      <c r="I132">
+        <v>8</v>
       </c>
       <c r="O132">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P132">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q132">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:20">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G133">
-        <v>9</v>
-      </c>
-      <c r="H133">
-        <v>18</v>
+      <c r="B133">
+        <v>27</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
       </c>
       <c r="I133">
-        <v>11</v>
-      </c>
-      <c r="O133">
-        <v>13</v>
-      </c>
-      <c r="P133">
+        <v>13</v>
+      </c>
+      <c r="J133">
+        <v>27</v>
+      </c>
+      <c r="K133">
+        <v>13</v>
+      </c>
+      <c r="Q133">
+        <v>10</v>
+      </c>
+      <c r="R133">
         <v>26</v>
       </c>
-      <c r="Q133">
-        <v>13</v>
+      <c r="S133">
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:20">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B134">
-        <v>13</v>
-      </c>
-      <c r="I134">
-        <v>18</v>
-      </c>
-      <c r="J134">
-        <v>27</v>
+      <c r="C134">
+        <v>19</v>
+      </c>
+      <c r="D134">
+        <v>26</v>
+      </c>
+      <c r="E134">
+        <v>7</v>
       </c>
       <c r="K134">
-        <v>7</v>
-      </c>
-      <c r="Q134">
-        <v>13</v>
-      </c>
-      <c r="R134">
+        <v>13</v>
+      </c>
+      <c r="L134">
         <v>26</v>
+      </c>
+      <c r="S134">
+        <v>18</v>
+      </c>
+      <c r="T134">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:20">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E135">
-        <v>17</v>
-      </c>
-      <c r="F135">
-        <v>17</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="N135">
-        <v>7</v>
-      </c>
-      <c r="O135">
-        <v>8</v>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="J135">
+        <v>13</v>
+      </c>
+      <c r="K135">
+        <v>13</v>
+      </c>
+      <c r="R135">
+        <v>16</v>
+      </c>
+      <c r="S135">
+        <v>26</v>
+      </c>
+      <c r="T135">
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:20">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C136">
-        <v>12</v>
-      </c>
-      <c r="D136">
-        <v>14</v>
-      </c>
       <c r="E136">
         <v>13</v>
       </c>
-      <c r="K136">
-        <v>18</v>
-      </c>
-      <c r="L136">
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136">
+        <v>9</v>
+      </c>
+      <c r="O136">
+        <v>18</v>
+      </c>
+      <c r="P136">
         <v>25</v>
       </c>
-      <c r="M136">
-        <v>7</v>
-      </c>
-      <c r="S136">
-        <v>18</v>
-      </c>
-      <c r="T136">
+      <c r="Q136">
         <v>8</v>
       </c>
     </row>
@@ -3833,19 +4238,22 @@
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E137">
-        <v>13</v>
-      </c>
-      <c r="F137">
-        <v>16</v>
-      </c>
       <c r="G137">
         <v>9</v>
       </c>
-      <c r="S137">
-        <v>12</v>
-      </c>
-      <c r="T137">
+      <c r="H137">
+        <v>18</v>
+      </c>
+      <c r="I137">
+        <v>12</v>
+      </c>
+      <c r="O137">
+        <v>13</v>
+      </c>
+      <c r="P137">
+        <v>26</v>
+      </c>
+      <c r="Q137">
         <v>13</v>
       </c>
     </row>
@@ -3853,219 +4261,264 @@
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E138">
-        <v>13</v>
-      </c>
-      <c r="F138">
-        <v>16</v>
-      </c>
-      <c r="G138">
-        <v>9</v>
-      </c>
-      <c r="N138">
-        <v>5</v>
-      </c>
-      <c r="O138">
-        <v>5</v>
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="I138">
+        <v>18</v>
+      </c>
+      <c r="J138">
+        <v>27</v>
+      </c>
+      <c r="K138">
+        <v>7</v>
+      </c>
+      <c r="Q138">
+        <v>13</v>
+      </c>
+      <c r="R138">
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:20">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
       <c r="G139">
-        <v>9</v>
-      </c>
-      <c r="H139">
-        <v>18</v>
-      </c>
-      <c r="I139">
-        <v>13</v>
-      </c>
-      <c r="Q139">
-        <v>18</v>
-      </c>
-      <c r="R139">
-        <v>21</v>
-      </c>
-      <c r="S139">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>12</v>
+      </c>
+      <c r="N139">
+        <v>18</v>
+      </c>
+      <c r="O139">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:20">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
       <c r="D140">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E140">
-        <v>22</v>
-      </c>
-      <c r="F140">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="K140">
+        <v>18</v>
       </c>
       <c r="L140">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M140">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="S140">
+        <v>18</v>
       </c>
       <c r="T140">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:20">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N141">
-        <v>12</v>
-      </c>
-      <c r="O141">
-        <v>11</v>
+      <c r="E141">
+        <v>13</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141">
+        <v>9</v>
+      </c>
+      <c r="S141">
+        <v>12</v>
+      </c>
+      <c r="T141">
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="E142">
+        <v>13</v>
+      </c>
       <c r="F142">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G142">
-        <v>16</v>
-      </c>
-      <c r="H142">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="M142">
+        <v>18</v>
       </c>
       <c r="N142">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O142">
-        <v>25</v>
-      </c>
-      <c r="P142">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:20">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B143">
-        <v>8</v>
+      <c r="G143">
+        <v>9</v>
       </c>
       <c r="H143">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I143">
-        <v>9</v>
-      </c>
-      <c r="J143">
-        <v>6</v>
-      </c>
-      <c r="P143">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q143">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R143">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="S143">
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:20">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C144">
-        <v>12</v>
-      </c>
       <c r="D144">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E144">
-        <v>13</v>
-      </c>
-      <c r="I144">
-        <v>18</v>
-      </c>
-      <c r="J144">
-        <v>25</v>
-      </c>
-      <c r="K144">
-        <v>7</v>
-      </c>
-      <c r="S144">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="F144">
+        <v>8</v>
+      </c>
+      <c r="L144">
+        <v>20</v>
+      </c>
+      <c r="M144">
+        <v>22</v>
       </c>
       <c r="T144">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:20">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B145">
-        <v>10</v>
-      </c>
-      <c r="H145">
-        <v>10</v>
-      </c>
-      <c r="I145">
-        <v>11</v>
-      </c>
-      <c r="J145">
-        <v>7</v>
-      </c>
-      <c r="P145">
-        <v>19</v>
-      </c>
-      <c r="Q145">
-        <v>27</v>
-      </c>
-      <c r="R145">
-        <v>11</v>
+      <c r="E145">
+        <v>14</v>
+      </c>
+      <c r="F145">
+        <v>26</v>
+      </c>
+      <c r="G145">
+        <v>12</v>
+      </c>
+      <c r="M145">
+        <v>14</v>
+      </c>
+      <c r="N145">
+        <v>25</v>
+      </c>
+      <c r="O145">
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:20">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q146">
-        <v>1</v>
+      <c r="F146">
+        <v>12</v>
+      </c>
+      <c r="G146">
+        <v>16</v>
+      </c>
+      <c r="H146">
+        <v>6</v>
+      </c>
+      <c r="N146">
+        <v>17</v>
+      </c>
+      <c r="O146">
+        <v>25</v>
+      </c>
+      <c r="P146">
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G147">
-        <v>9</v>
+      <c r="B147">
+        <v>8</v>
       </c>
       <c r="H147">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I147">
-        <v>11</v>
-      </c>
-      <c r="O147">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="J147">
+        <v>7</v>
       </c>
       <c r="P147">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="Q147">
+        <v>24</v>
+      </c>
+      <c r="R147">
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N148">
-        <v>13</v>
-      </c>
-      <c r="O148">
+      <c r="C148">
+        <v>13</v>
+      </c>
+      <c r="D148">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>13</v>
+      </c>
+      <c r="I148">
+        <v>18</v>
+      </c>
+      <c r="J148">
+        <v>27</v>
+      </c>
+      <c r="K148">
+        <v>7</v>
+      </c>
+      <c r="S148">
+        <v>12</v>
+      </c>
+      <c r="T148">
         <v>13</v>
       </c>
     </row>
@@ -4074,222 +4527,240 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>38</v>
-      </c>
-      <c r="C149">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <v>13</v>
+      </c>
+      <c r="J149">
+        <v>7</v>
+      </c>
+      <c r="P149">
+        <v>19</v>
+      </c>
+      <c r="Q149">
+        <v>29</v>
+      </c>
+      <c r="R149">
         <v>11</v>
-      </c>
-      <c r="I149">
-        <v>18</v>
-      </c>
-      <c r="J149">
-        <v>1</v>
-      </c>
-      <c r="P149">
-        <v>14</v>
-      </c>
-      <c r="Q149">
-        <v>27</v>
-      </c>
-      <c r="R149">
-        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:20">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F150">
-        <v>8</v>
-      </c>
-      <c r="G150">
-        <v>18</v>
-      </c>
-      <c r="H150">
-        <v>9</v>
-      </c>
-      <c r="N150">
-        <v>8</v>
-      </c>
-      <c r="O150">
-        <v>18</v>
-      </c>
-      <c r="P150">
-        <v>9</v>
+      <c r="Q150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D151">
-        <v>8</v>
-      </c>
-      <c r="E151">
-        <v>17</v>
-      </c>
-      <c r="F151">
-        <v>6</v>
-      </c>
-      <c r="L151">
-        <v>8</v>
+      <c r="G151">
+        <v>9</v>
+      </c>
+      <c r="H151">
+        <v>18</v>
+      </c>
+      <c r="I151">
+        <v>12</v>
+      </c>
+      <c r="O151">
+        <v>18</v>
+      </c>
+      <c r="P151">
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:20">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="E152">
+        <v>7</v>
+      </c>
+      <c r="F152">
+        <v>28</v>
+      </c>
+      <c r="G152">
+        <v>8</v>
+      </c>
+      <c r="M152">
+        <v>20</v>
+      </c>
+      <c r="N152">
+        <v>27</v>
+      </c>
       <c r="O152">
-        <v>18</v>
-      </c>
-      <c r="P152">
-        <v>21</v>
-      </c>
-      <c r="Q152">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G153">
-        <v>8</v>
+      <c r="B153">
+        <v>38</v>
+      </c>
+      <c r="C153">
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I153">
+        <v>19</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <v>14</v>
+      </c>
+      <c r="Q153">
+        <v>27</v>
+      </c>
+      <c r="R153">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>12</v>
-      </c>
-      <c r="C154">
-        <v>19</v>
-      </c>
-      <c r="D154">
-        <v>5</v>
-      </c>
-      <c r="J154">
-        <v>12</v>
-      </c>
-      <c r="K154">
+      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="G154">
+        <v>18</v>
+      </c>
+      <c r="H154">
+        <v>9</v>
+      </c>
+      <c r="N154">
+        <v>17</v>
+      </c>
+      <c r="O154">
+        <v>18</v>
+      </c>
+      <c r="P154">
         <v>10</v>
-      </c>
-      <c r="L154">
-        <v>5</v>
-      </c>
-      <c r="R154">
-        <v>17</v>
-      </c>
-      <c r="S154">
-        <v>16</v>
-      </c>
-      <c r="T154">
-        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O155">
-        <v>17</v>
-      </c>
-      <c r="P155">
-        <v>23</v>
-      </c>
-      <c r="Q155">
-        <v>4</v>
+      <c r="D155">
+        <v>8</v>
+      </c>
+      <c r="E155">
+        <v>18</v>
+      </c>
+      <c r="F155">
+        <v>6</v>
+      </c>
+      <c r="L155">
+        <v>8</v>
+      </c>
+      <c r="M155">
+        <v>15</v>
+      </c>
+      <c r="N155">
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:20">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B156">
-        <v>27</v>
-      </c>
-      <c r="C156">
-        <v>9</v>
+      <c r="G156">
+        <v>16</v>
+      </c>
+      <c r="H156">
+        <v>16</v>
+      </c>
+      <c r="I156">
+        <v>9</v>
+      </c>
+      <c r="O156">
+        <v>18</v>
+      </c>
+      <c r="P156">
+        <v>22</v>
       </c>
       <c r="Q156">
-        <v>16</v>
-      </c>
-      <c r="R156">
-        <v>25</v>
-      </c>
-      <c r="S156">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B157">
-        <v>12</v>
-      </c>
-      <c r="C157">
-        <v>20</v>
-      </c>
-      <c r="D157">
-        <v>7</v>
-      </c>
-      <c r="J157">
-        <v>5</v>
-      </c>
-      <c r="K157">
-        <v>13</v>
-      </c>
-      <c r="R157">
-        <v>16</v>
-      </c>
-      <c r="S157">
-        <v>21</v>
-      </c>
-      <c r="T157">
-        <v>9</v>
+      <c r="G157">
+        <v>8</v>
+      </c>
+      <c r="H157">
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Q158">
-        <v>18</v>
+      <c r="B158">
+        <v>12</v>
+      </c>
+      <c r="C158">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="J158">
+        <v>13</v>
+      </c>
+      <c r="K158">
+        <v>11</v>
+      </c>
+      <c r="L158">
+        <v>6</v>
       </c>
       <c r="R158">
+        <v>17</v>
+      </c>
+      <c r="S158">
         <v>16</v>
       </c>
-      <c r="S158">
-        <v>9</v>
+      <c r="T158">
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E159">
-        <v>18</v>
-      </c>
-      <c r="F159">
-        <v>27</v>
-      </c>
       <c r="G159">
-        <v>3</v>
-      </c>
-      <c r="N159">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H159">
+        <v>25</v>
+      </c>
+      <c r="I159">
+        <v>12</v>
       </c>
       <c r="O159">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="P159">
+        <v>23</v>
+      </c>
+      <c r="Q159">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -4297,28 +4768,28 @@
         <v>159</v>
       </c>
       <c r="B160">
+        <v>27</v>
+      </c>
+      <c r="C160">
+        <v>9</v>
+      </c>
+      <c r="I160">
         <v>14</v>
       </c>
-      <c r="C160">
-        <v>24</v>
-      </c>
-      <c r="D160">
-        <v>6</v>
-      </c>
       <c r="J160">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K160">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="Q160">
+        <v>16</v>
       </c>
       <c r="R160">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="S160">
-        <v>24</v>
-      </c>
-      <c r="T160">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -4326,28 +4797,28 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C161">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D161">
         <v>7</v>
       </c>
       <c r="J161">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K161">
-        <v>31</v>
-      </c>
-      <c r="L161">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="M161">
+        <v>5</v>
       </c>
       <c r="R161">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S161">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T161">
         <v>9</v>
@@ -4358,37 +4829,70 @@
         <v>161</v>
       </c>
       <c r="Q162">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="R162">
+        <v>16</v>
+      </c>
+      <c r="S162">
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:20">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I163">
-        <v>12</v>
-      </c>
-      <c r="J163">
-        <v>8</v>
-      </c>
-      <c r="P163">
-        <v>8</v>
-      </c>
-      <c r="Q163">
-        <v>6</v>
+      <c r="E163">
+        <v>19</v>
+      </c>
+      <c r="F163">
+        <v>29</v>
+      </c>
+      <c r="G163">
+        <v>4</v>
+      </c>
+      <c r="M163">
+        <v>13</v>
+      </c>
+      <c r="N163">
+        <v>18</v>
+      </c>
+      <c r="O163">
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:20">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O164">
+      <c r="B164">
         <v>14</v>
       </c>
-      <c r="P164">
+      <c r="C164">
+        <v>25</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+      <c r="J164">
+        <v>11</v>
+      </c>
+      <c r="K164">
         <v>27</v>
       </c>
-      <c r="Q164">
+      <c r="L164">
+        <v>4</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="R164">
+        <v>12</v>
+      </c>
+      <c r="S164">
+        <v>24</v>
+      </c>
+      <c r="T164">
         <v>13</v>
       </c>
     </row>
@@ -4396,32 +4900,38 @@
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="B165">
+        <v>21</v>
+      </c>
       <c r="C165">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="D165">
+        <v>8</v>
+      </c>
+      <c r="J165">
+        <v>17</v>
+      </c>
+      <c r="K165">
+        <v>32</v>
+      </c>
+      <c r="L165">
+        <v>13</v>
+      </c>
+      <c r="R165">
+        <v>11</v>
       </c>
       <c r="S165">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T165">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:20">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G166">
-        <v>10</v>
-      </c>
-      <c r="H166">
-        <v>18</v>
-      </c>
-      <c r="O166">
-        <v>13</v>
-      </c>
-      <c r="P166">
-        <v>25</v>
-      </c>
       <c r="Q166">
         <v>13</v>
       </c>
@@ -4430,82 +4940,82 @@
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D167">
-        <v>8</v>
-      </c>
-      <c r="E167">
-        <v>17</v>
-      </c>
-      <c r="F167">
-        <v>8</v>
+      <c r="B167">
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:20">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D168">
-        <v>3</v>
-      </c>
-      <c r="E168">
-        <v>3</v>
-      </c>
-      <c r="L168">
-        <v>9</v>
-      </c>
-      <c r="T168">
-        <v>4</v>
+      <c r="I168">
+        <v>12</v>
+      </c>
+      <c r="J168">
+        <v>8</v>
+      </c>
+      <c r="P168">
+        <v>9</v>
+      </c>
+      <c r="Q168">
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:20">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D169">
-        <v>10</v>
-      </c>
-      <c r="E169">
-        <v>17</v>
-      </c>
-      <c r="F169">
-        <v>3</v>
-      </c>
-      <c r="T169">
-        <v>1</v>
+      <c r="G169">
+        <v>18</v>
+      </c>
+      <c r="H169">
+        <v>26</v>
+      </c>
+      <c r="I169">
+        <v>7</v>
+      </c>
+      <c r="O169">
+        <v>14</v>
+      </c>
+      <c r="P169">
+        <v>27</v>
+      </c>
+      <c r="Q169">
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:20">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B170">
-        <v>28</v>
-      </c>
-      <c r="C170">
-        <v>9</v>
-      </c>
-      <c r="Q170">
-        <v>16</v>
-      </c>
-      <c r="R170">
-        <v>20</v>
-      </c>
-      <c r="S170">
-        <v>13</v>
+      <c r="J170">
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:20">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
       <c r="D171">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E171">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="K171">
+        <v>20</v>
       </c>
       <c r="L171">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="S171">
+        <v>14</v>
+      </c>
+      <c r="T171">
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -4513,13 +5023,10 @@
         <v>171</v>
       </c>
       <c r="G172">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H172">
-        <v>15</v>
-      </c>
-      <c r="I172">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O172">
         <v>13</v>
@@ -4528,134 +5035,146 @@
         <v>25</v>
       </c>
       <c r="Q172">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:20">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Q173">
-        <v>12</v>
+      <c r="D173">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>18</v>
+      </c>
+      <c r="F173">
+        <v>8</v>
+      </c>
+      <c r="M173">
+        <v>10</v>
+      </c>
+      <c r="N173">
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:20">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B174">
-        <v>18</v>
-      </c>
-      <c r="I174">
-        <v>12</v>
-      </c>
-      <c r="Q174">
-        <v>11</v>
-      </c>
-      <c r="R174">
-        <v>21</v>
-      </c>
-      <c r="S174">
-        <v>14</v>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="L174">
+        <v>9</v>
+      </c>
+      <c r="T174">
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:20">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N175">
-        <v>8</v>
-      </c>
-      <c r="O175">
-        <v>16</v>
+      <c r="J175">
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:20">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="D176">
+        <v>10</v>
+      </c>
+      <c r="E176">
+        <v>18</v>
+      </c>
       <c r="F176">
-        <v>10</v>
-      </c>
-      <c r="G176">
+        <v>4</v>
+      </c>
+      <c r="M176">
         <v>19</v>
       </c>
-      <c r="H176">
-        <v>9</v>
-      </c>
       <c r="N176">
-        <v>3</v>
-      </c>
-      <c r="O176">
-        <v>19</v>
-      </c>
-      <c r="P176">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="T176">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:20">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G177">
-        <v>14</v>
-      </c>
-      <c r="H177">
-        <v>15</v>
+      <c r="B177">
+        <v>28</v>
+      </c>
+      <c r="C177">
+        <v>9</v>
       </c>
       <c r="I177">
-        <v>6</v>
-      </c>
-      <c r="O177">
-        <v>13</v>
-      </c>
-      <c r="P177">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="J177">
+        <v>21</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
       </c>
       <c r="Q177">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="R177">
+        <v>20</v>
+      </c>
+      <c r="S177">
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:20">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C178">
-        <v>9</v>
-      </c>
       <c r="D178">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E178">
-        <v>3</v>
-      </c>
-      <c r="K178">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L178">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M178">
-        <v>9</v>
-      </c>
-      <c r="S178">
-        <v>10</v>
-      </c>
-      <c r="T178">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:20">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E179">
+      <c r="G179">
+        <v>14</v>
+      </c>
+      <c r="H179">
         <v>19</v>
       </c>
-      <c r="F179">
-        <v>14</v>
-      </c>
-      <c r="G179">
+      <c r="I179">
+        <v>9</v>
+      </c>
+      <c r="O179">
+        <v>13</v>
+      </c>
+      <c r="P179">
+        <v>25</v>
+      </c>
+      <c r="Q179">
         <v>9</v>
       </c>
     </row>
@@ -4663,60 +5182,51 @@
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F180">
-        <v>5</v>
-      </c>
-      <c r="G180">
-        <v>17</v>
-      </c>
-      <c r="H180">
-        <v>8</v>
-      </c>
-      <c r="N180">
-        <v>7</v>
-      </c>
-      <c r="O180">
-        <v>8</v>
-      </c>
-      <c r="P180">
-        <v>8</v>
+      <c r="Q180">
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:20">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K181">
-        <v>6</v>
-      </c>
-      <c r="L181">
-        <v>10</v>
+      <c r="B181">
+        <v>18</v>
+      </c>
+      <c r="I181">
+        <v>13</v>
+      </c>
+      <c r="Q181">
+        <v>11</v>
+      </c>
+      <c r="R181">
+        <v>21</v>
       </c>
       <c r="S181">
-        <v>9</v>
-      </c>
-      <c r="T181">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:20">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D182">
-        <v>6</v>
-      </c>
       <c r="E182">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F182">
-        <v>6</v>
-      </c>
-      <c r="L182">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="G182">
+        <v>11</v>
       </c>
       <c r="M182">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="N182">
+        <v>25</v>
+      </c>
+      <c r="O182">
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -4724,122 +5234,107 @@
         <v>182</v>
       </c>
       <c r="F183">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G183">
+        <v>19</v>
+      </c>
+      <c r="H183">
         <v>9</v>
       </c>
       <c r="N183">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O183">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="P183">
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:20">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C184">
-        <v>9</v>
-      </c>
-      <c r="D184">
-        <v>16</v>
-      </c>
-      <c r="E184">
-        <v>8</v>
-      </c>
-      <c r="K184">
-        <v>12</v>
-      </c>
-      <c r="L184">
-        <v>16</v>
-      </c>
-      <c r="M184">
-        <v>3</v>
-      </c>
-      <c r="S184">
+      <c r="G184">
         <v>14</v>
       </c>
-      <c r="T184">
-        <v>5</v>
+      <c r="H184">
+        <v>17</v>
+      </c>
+      <c r="I184">
+        <v>6</v>
+      </c>
+      <c r="O184">
+        <v>13</v>
+      </c>
+      <c r="P184">
+        <v>27</v>
+      </c>
+      <c r="Q184">
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:20">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B185">
-        <v>7</v>
-      </c>
       <c r="C185">
         <v>9</v>
       </c>
-      <c r="Q185">
-        <v>13</v>
-      </c>
-      <c r="R185">
-        <v>18</v>
+      <c r="D185">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="K185">
+        <v>9</v>
+      </c>
+      <c r="L185">
+        <v>20</v>
+      </c>
+      <c r="M185">
+        <v>9</v>
       </c>
       <c r="S185">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="T185">
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:20">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D186">
-        <v>18</v>
-      </c>
-      <c r="L186">
-        <v>19</v>
+      <c r="M186">
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:20">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B187">
-        <v>8</v>
-      </c>
-      <c r="H187">
-        <v>7</v>
-      </c>
-      <c r="I187">
+      <c r="E187">
+        <v>19</v>
+      </c>
+      <c r="F187">
         <v>22</v>
       </c>
-      <c r="P187">
-        <v>18</v>
-      </c>
-      <c r="Q187">
-        <v>12</v>
-      </c>
-      <c r="R187">
-        <v>6</v>
+      <c r="G187">
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:20">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F188">
-        <v>14</v>
-      </c>
-      <c r="G188">
-        <v>13</v>
-      </c>
-      <c r="H188">
-        <v>2</v>
-      </c>
-      <c r="N188">
-        <v>12</v>
-      </c>
-      <c r="O188">
-        <v>23</v>
-      </c>
-      <c r="P188">
-        <v>10</v>
+      <c r="J188">
+        <v>3</v>
+      </c>
+      <c r="K188">
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -4847,140 +5342,164 @@
         <v>188</v>
       </c>
       <c r="F189">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G189">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N189">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O189">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="P189">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:20">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="K190">
+        <v>6</v>
+      </c>
+      <c r="L190">
+        <v>11</v>
+      </c>
       <c r="S190">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="T190">
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:20">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B191">
-        <v>25</v>
-      </c>
-      <c r="C191">
-        <v>13</v>
-      </c>
-      <c r="Q191">
-        <v>17</v>
-      </c>
-      <c r="R191">
-        <v>20</v>
-      </c>
-      <c r="S191">
-        <v>7</v>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191">
+        <v>21</v>
+      </c>
+      <c r="F191">
+        <v>6</v>
+      </c>
+      <c r="L191">
+        <v>5</v>
+      </c>
+      <c r="M191">
+        <v>23</v>
+      </c>
+      <c r="N191">
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:20">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D192">
-        <v>9</v>
-      </c>
-      <c r="E192">
-        <v>13</v>
-      </c>
       <c r="F192">
-        <v>8</v>
-      </c>
-      <c r="L192">
-        <v>12</v>
-      </c>
-      <c r="T192">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="G192">
+        <v>9</v>
+      </c>
+      <c r="N192">
+        <v>15</v>
+      </c>
+      <c r="O192">
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:20">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H193">
-        <v>8</v>
-      </c>
-      <c r="I193">
-        <v>8</v>
-      </c>
-      <c r="P193">
-        <v>15</v>
-      </c>
-      <c r="Q193">
-        <v>23</v>
-      </c>
-      <c r="R193">
-        <v>13</v>
+      <c r="C193">
+        <v>9</v>
+      </c>
+      <c r="D193">
+        <v>17</v>
+      </c>
+      <c r="E193">
+        <v>8</v>
+      </c>
+      <c r="K193">
+        <v>13</v>
+      </c>
+      <c r="L193">
+        <v>17</v>
+      </c>
+      <c r="M193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>14</v>
+      </c>
+      <c r="T193">
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:20">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F194">
-        <v>12</v>
-      </c>
-      <c r="G194">
-        <v>11</v>
-      </c>
-      <c r="H194">
-        <v>6</v>
-      </c>
-      <c r="N194">
-        <v>8</v>
-      </c>
-      <c r="O194">
-        <v>24</v>
-      </c>
-      <c r="P194">
-        <v>9</v>
+      <c r="B194">
+        <v>8</v>
+      </c>
+      <c r="C194">
+        <v>9</v>
+      </c>
+      <c r="Q194">
+        <v>13</v>
+      </c>
+      <c r="R194">
+        <v>18</v>
+      </c>
+      <c r="S194">
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:20">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C195">
-        <v>10</v>
+      <c r="D195">
+        <v>19</v>
+      </c>
+      <c r="L195">
+        <v>20</v>
+      </c>
+      <c r="M195">
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:20">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G196">
-        <v>5</v>
+      <c r="B196">
+        <v>8</v>
       </c>
       <c r="H196">
-        <v>2</v>
-      </c>
-      <c r="O196">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="I196">
+        <v>22</v>
       </c>
       <c r="P196">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q196">
+        <v>12</v>
+      </c>
+      <c r="R196">
         <v>6</v>
       </c>
     </row>
@@ -4988,47 +5507,256 @@
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C197">
-        <v>8</v>
-      </c>
-      <c r="S197">
-        <v>17</v>
-      </c>
-      <c r="T197">
-        <v>8</v>
+      <c r="M197">
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:20">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B198">
-        <v>18</v>
-      </c>
-      <c r="C198">
-        <v>9</v>
-      </c>
-      <c r="I198">
-        <v>13</v>
-      </c>
-      <c r="J198">
-        <v>22</v>
+      <c r="F198">
+        <v>16</v>
+      </c>
+      <c r="G198">
+        <v>13</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>13</v>
+      </c>
+      <c r="O198">
+        <v>26</v>
+      </c>
+      <c r="P198">
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:20">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C199">
+      <c r="F199">
+        <v>9</v>
+      </c>
+      <c r="G199">
+        <v>11</v>
+      </c>
+      <c r="H199">
+        <v>6</v>
+      </c>
+      <c r="N199">
+        <v>13</v>
+      </c>
+      <c r="O199">
+        <v>24</v>
+      </c>
+      <c r="P199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>26</v>
+      </c>
+      <c r="C201">
+        <v>13</v>
+      </c>
+      <c r="I201">
+        <v>17</v>
+      </c>
+      <c r="J201">
+        <v>21</v>
+      </c>
+      <c r="K201">
+        <v>6</v>
+      </c>
+      <c r="Q201">
+        <v>17</v>
+      </c>
+      <c r="R201">
+        <v>20</v>
+      </c>
+      <c r="S201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>13</v>
+      </c>
+      <c r="F202">
+        <v>8</v>
+      </c>
+      <c r="L202">
+        <v>12</v>
+      </c>
+      <c r="M202">
+        <v>19</v>
+      </c>
+      <c r="N202">
+        <v>8</v>
+      </c>
+      <c r="T202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H203">
+        <v>8</v>
+      </c>
+      <c r="I203">
+        <v>8</v>
+      </c>
+      <c r="P203">
+        <v>15</v>
+      </c>
+      <c r="Q203">
+        <v>23</v>
+      </c>
+      <c r="R203">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F204">
+        <v>12</v>
+      </c>
+      <c r="G204">
+        <v>12</v>
+      </c>
+      <c r="H204">
+        <v>6</v>
+      </c>
+      <c r="N204">
+        <v>12</v>
+      </c>
+      <c r="O204">
+        <v>24</v>
+      </c>
+      <c r="P204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G206">
+        <v>14</v>
+      </c>
+      <c r="H206">
+        <v>26</v>
+      </c>
+      <c r="I206">
+        <v>11</v>
+      </c>
+      <c r="O206">
+        <v>18</v>
+      </c>
+      <c r="P206">
+        <v>29</v>
+      </c>
+      <c r="Q206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C207">
+        <v>16</v>
+      </c>
+      <c r="D207">
+        <v>30</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="K207">
+        <v>13</v>
+      </c>
+      <c r="L207">
+        <v>26</v>
+      </c>
+      <c r="M207">
+        <v>10</v>
+      </c>
+      <c r="S207">
+        <v>17</v>
+      </c>
+      <c r="T207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>19</v>
+      </c>
+      <c r="C208">
+        <v>9</v>
+      </c>
+      <c r="I208">
+        <v>13</v>
+      </c>
+      <c r="J208">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C209">
         <v>2</v>
       </c>
-      <c r="E199">
+      <c r="E209">
         <v>1</v>
       </c>
-      <c r="Q199">
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="Q209">
         <v>3</v>
       </c>
-      <c r="R199">
+      <c r="R209">
         <v>1</v>
       </c>
     </row>
